--- a/Sanity_checks/fluxes.xlsx
+++ b/Sanity_checks/fluxes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>HDFC0214</t>
   </si>
@@ -48,14 +48,70 @@
   </si>
   <si>
     <t>Effelsberg</t>
+  </si>
+  <si>
+    <t>Angular offset</t>
+  </si>
+  <si>
+    <t>(arcmin)</t>
+  </si>
+  <si>
+    <t>Peak (mJy)</t>
+  </si>
+  <si>
+    <t>Integrated  (mJy)</t>
+  </si>
+  <si>
+    <t>Peak  (mJy)</t>
+  </si>
+  <si>
+    <t>PRE-PB CORR</t>
+  </si>
+  <si>
+    <t>POST-PB CORR</t>
+  </si>
+  <si>
+    <t>Correction (voltage)</t>
+  </si>
+  <si>
+    <t>Correction (power)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -71,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -79,12 +135,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,44 +526,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.472</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.395</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>1.6045</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.6286</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.363</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1">
+        <v>1.4938</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.3683000000000001</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="10">
+        <v>5.68</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.423</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2.2242000000000002</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10">
+        <v>1.4745999999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2.3001</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="16">
+        <v>3.18</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16">
+        <f>F12*F12</f>
+        <v>3.011594952965166</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2.4788999999999999</v>
+      </c>
+      <c r="H11" s="16">
+        <v>3.87</v>
+      </c>
+      <c r="I11" s="16">
+        <f>J11*J11</f>
+        <v>2.2556608075639897</v>
+      </c>
+      <c r="J11" s="22">
+        <v>1.5018857505030101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="16" t="e">
+        <f>#REF!*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1.73539475421737</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H12" s="16">
+        <v>3.62</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" ref="I12:I13" si="0">J12*J12</f>
+        <v>1.3844076138898302</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1.1766085219349001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="20">
+        <v>5.68</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20">
+        <f t="shared" ref="E12:E13" si="1">F13*F13</f>
+        <v>4.0964939828385791</v>
+      </c>
+      <c r="F13" s="23">
+        <v>2.0239797387421099</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2.1555</v>
+      </c>
+      <c r="H13" s="20">
+        <v>3.4937</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="0"/>
+        <v>2.8304822704091013</v>
+      </c>
+      <c r="J13" s="24">
+        <v>1.6824037180204701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
